--- a/data/trans_dic/P8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>1,53%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>1,71%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>2,37%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,67</t>
+          <t>1,03; 7,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,31</t>
+          <t>0,73; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,65</t>
+          <t>1,35; 11,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 8,82</t>
+          <t>1,53; 11,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,15</t>
+          <t>2,1; 10,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,86</t>
+          <t>0,95; 8,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,0; 7,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,69</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,21</t>
+          <t>0,39; 4,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,48</t>
+          <t>0,35; 4,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,83</t>
+          <t>0,53; 4,53</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,49</t>
+          <t>0,0; 5,96</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,11</t>
+          <t>0,0; 5,94</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,17</t>
+          <t>0,83; 7,45</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,35</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 6,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 6,52</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 6,62</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 5,28</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 5,09</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>2,34%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>6,15%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>5,12%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 15,68</t>
+          <t>4,25; 14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,35</t>
+          <t>2,27; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,5</t>
+          <t>4,02; 11,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,69</t>
+          <t>3,63; 10,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,08</t>
+          <t>3,9; 13,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,06</t>
+          <t>2,58; 13,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,66</t>
+          <t>7,11; 19,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,82</t>
+          <t>0,87; 5,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,74</t>
+          <t>1,59; 8,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 13,3</t>
+          <t>2,09; 7,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,73</t>
+          <t>3,59; 9,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,66</t>
+          <t>5,41; 13,6</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,86</t>
+          <t>2,02; 11,53</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,09</t>
+          <t>2,85; 10,14</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,37</t>
+          <t>2,97; 9,3</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 7,29</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 8,5</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 9,23</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 11,52</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 10,31</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 12,62</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,9%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>2,8%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>4,84%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,05</t>
+          <t>4,16; 10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,13</t>
+          <t>5,45; 12,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,98</t>
+          <t>5,51; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,59</t>
+          <t>4,68; 10,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,78</t>
+          <t>4,76; 11,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,48</t>
+          <t>4,68; 12,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,09</t>
+          <t>6,38; 15,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,35</t>
+          <t>1,39; 5,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,86</t>
+          <t>0,35; 3,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,4</t>
+          <t>1,5; 5,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,03</t>
+          <t>2,24; 6,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,67</t>
+          <t>3,28; 9,1</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,52</t>
+          <t>0,89; 5,7</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,18</t>
+          <t>2,45; 8,37</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,65</t>
+          <t>3,29; 6,93</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 6,97</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 7,86</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 7,71</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 8,82</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 8,1</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 10,53</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1424,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1205,62 +1434,92 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,22%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>4,86%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>5,51%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>6,93%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,62</t>
+          <t>4,7; 10,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,76</t>
+          <t>4,76; 12,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 13,86</t>
+          <t>6,74; 14,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,78</t>
+          <t>8,15; 16,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,87</t>
+          <t>4,67; 12,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,13</t>
+          <t>5,1; 12,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,52</t>
+          <t>7,78; 17,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,12</t>
+          <t>2,89; 7,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,4</t>
+          <t>3,02; 8,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,94</t>
+          <t>3,39; 8,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,97</t>
+          <t>3,23; 8,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,88</t>
+          <t>3,08; 8,09</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,85</t>
+          <t>2,99; 8,91</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,16</t>
+          <t>3,83; 10,35</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,63</t>
+          <t>4,43; 8,19</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 8,82</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 9,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 11,06</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 8,79</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 9,48</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 12,25</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>12,7%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>12,16%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,5%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>10,07%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>11,38%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>11,65%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>12,46%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,99</t>
+          <t>4,55; 14,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 17,21</t>
+          <t>5,37; 17,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 15,5</t>
+          <t>5,75; 15,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,46</t>
+          <t>6,15; 15,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 18,03</t>
+          <t>7,07; 17,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 16,98</t>
+          <t>8,26; 18,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 19,29</t>
+          <t>13,26; 24,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 19,35</t>
+          <t>8,36; 17,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,81</t>
+          <t>10,08; 19,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 17,73</t>
+          <t>9,49; 19,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,32</t>
+          <t>10,17; 19,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 16,14</t>
+          <t>8,38; 19,2</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,61</t>
+          <t>8,29; 17,69</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 15,35</t>
+          <t>10,26; 20,98</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 16,23</t>
+          <t>7,4; 13,41</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 16,31</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 15,56</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 15,43</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 15,89</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 15,7</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 20,59</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
           <t>19,83%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,5%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,42%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>36,38%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>16,54%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,33%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>17,82%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>27,05%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,58</t>
+          <t>8,33; 17,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,82</t>
+          <t>7,25; 16,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 15,56</t>
+          <t>6,66; 15,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 16,56</t>
+          <t>7,8; 16,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,99</t>
+          <t>8,79; 21,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 25,0</t>
+          <t>8,7; 21,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,58; 28,59</t>
+          <t>9,47; 21,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,8</t>
+          <t>15,48; 24,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 28,88</t>
+          <t>17,06; 28,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,83; 46,79</t>
+          <t>15,82; 25,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,97</t>
+          <t>17,93; 28,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,86</t>
+          <t>19,31; 34,6</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,31</t>
+          <t>27,53; 46,68</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,03; 21,79</t>
+          <t>21,81; 37,97</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>21,43; 34,62</t>
+          <t>13,3; 20,23</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 22,28</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 19,64</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 22,08</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 26,51</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>20,96; 33,95</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>18,83; 29,71</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>8,79%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>7,84%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>7,65%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>10,42%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,04</t>
+          <t>5,97; 9,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,09</t>
+          <t>5,92; 9,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,83</t>
+          <t>6,94; 10,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,17</t>
+          <t>7,02; 10,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,99</t>
+          <t>7,31; 11,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,27</t>
+          <t>6,96; 10,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,74</t>
+          <t>9,57; 13,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,56</t>
+          <t>6,49; 9,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,59</t>
+          <t>6,8; 9,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,0</t>
+          <t>6,75; 9,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,76</t>
+          <t>7,7; 10,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 8,89</t>
+          <t>8,67; 12,9</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,21</t>
+          <t>9,52; 15,12</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,9</t>
+          <t>9,61; 13,95</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,41</t>
+          <t>6,57; 8,67</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 9,09</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,3</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 9,94</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 11,18</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 12,28</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 13,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13943</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14018</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22165</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22531</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24620</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1249</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11209</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7875</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8168</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25152</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>14018</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>29954</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>30406</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>32788</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5281; 39500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3686; 32328</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7094; 60967</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7794; 61055</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9901; 49901</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>399; 3436</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2988</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 52223</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1988; 25709</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1816; 24181</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2531; 21607</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2228</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2290</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8120; 72657</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3644; 32491</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11024; 65466</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12033; 66815</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16407; 62756</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>706; 4194</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>443; 4091</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43290</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29641</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41261</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39249</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43834</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12131</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19839</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21286</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31830</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43507</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2571</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>55421</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>49480</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>62547</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>71079</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>87341</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>5768</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>8407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23957; 79704</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13009; 53769</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22726; 62831</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21570; 64796</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22599; 79671</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1286; 6610</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3482; 9588</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4539; 27884</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8276; 42489</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10600; 36003</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18580; 50932</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27312; 68679</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>955; 5443</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1313; 4664</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>32158; 100699</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>27517; 79604</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>40276; 91262</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>49031; 102596</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>57051; 124943</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>3416; 10010</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>5345; 11989</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46864</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59214</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58387</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49861</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50053</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4738</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19457</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9781</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21445</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26830</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39004</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>66320</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>68995</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>79831</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>76691</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>89057</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>6142</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>8677</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28147; 70452</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37398; 85006</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37484; 82582</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31854; 73907</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31576; 76787</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2806; 7282</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3857; 9160</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9659; 35271</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2500; 23164</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10791; 39526</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16019; 44832</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23474; 65127</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>477; 3076</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1346; 4589</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>45090; 94935</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>45848; 97351</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>57210; 109987</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>54137; 107449</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>60096; 121530</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>3958; 9227</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>5986; 12144</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45576</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49801</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63031</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>74495</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>51153</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4789</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6551</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34185</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34401</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36185</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32915</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>34864</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3554</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>79761</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>84202</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>99216</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>107410</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>86017</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>10106</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30028; 67766</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30834; 79100</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43529; 91344</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52083; 106072</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30604; 79127</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2972; 7454</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4431; 9720</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20348; 55244</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20674; 55481</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22826; 55063</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21336; 52784</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20391; 53520</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1565; 4674</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2052; 5536</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>59436; 109860</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>55468; 117515</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>73639; 127096</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>82796; 143692</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>58888; 115735</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>5425; 10495</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>7351; 13529</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41025</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45346</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>47018</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47703</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55810</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5649</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8360</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>61088</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72111</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67487</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>69445</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65903</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6885</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>102114</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>117456</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>114505</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>117148</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>121713</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>11620</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>15244</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23296; 72426</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26594; 89021</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28981; 78729</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30329; 74322</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34990; 86953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3673; 8376</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5914; 11009</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42004; 87081</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51338; 99647</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47537; 95339</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51923; 98937</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>43310; 99237</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4043; 8629</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4754; 9728</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>75061; 136044</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>87802; 163772</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>86050; 156334</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>89113; 154884</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>88267; 160819</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>8882; 14640</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>12073; 18729</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>66408</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>61460</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>55457</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61098</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>79048</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6674</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>145027</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>162428</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>136707</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>158126</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>190737</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>23201</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18581</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>211435</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>223889</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>192164</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>219224</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>269785</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>29924</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>25255</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>45531; 94241</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>39543; 91022</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>35069; 81582</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>41541; 88233</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>49189; 118888</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4077; 9912</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4248; 9555</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>113187; 180626</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>122465; 204602</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>109099; 174556</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>123290; 196770</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>140513; 251758</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>17542; 29744</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>13808; 24043</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>170022; 258529</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>180707; 281404</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>152520; 238803</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>178783; 269318</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>210101; 341259</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>23176; 37537</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>20370; 32140</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>257106</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>259479</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>287320</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>294937</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>304519</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26497</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34475</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>283097</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>298560</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>290899</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>327021</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>382182</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>36520</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>34731</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>540203</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>558040</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>578218</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>621958</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>686701</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>63017</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>69206</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>206068; 316636</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>204194; 317467</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>239283; 352446</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>242280; 352454</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>250099; 380704</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20975; 32182</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28502; 40689</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>234406; 336560</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>245354; 356763</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>243272; 345851</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>277376; 387039</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>312301; 464907</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>28893; 45877</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>29080; 42203</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>463766; 611975</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>482657; 642063</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>509928; 655607</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>553203; 700674</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>591729; 785662</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>53770; 74291</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>60688; 79596</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>